--- a/biology/Zoologie/Diamantinasaurus/Diamantinasaurus.xlsx
+++ b/biology/Zoologie/Diamantinasaurus/Diamantinasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diamantinasaurus matildae
 Diamantinasaurus est un genre éteint de dinosaures sauropodes, un titanosaure basal qui vivait en Australie dans l'actuel Queensland au début du Crétacé supérieur (Cénomanien), soit il y a environ entre 100,5 et 93,9 millions d'années.
-L'espèce type du genre, et seule espèce, est Diamantinasaurus matildae, décrite et nommée en 2009 par Scott Hocknull et ses collègues[1].
+L'espèce type du genre, et seule espèce, est Diamantinasaurus matildae, décrite et nommée en 2009 par Scott Hocknull et ses collègues.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Diamantinasaurus a été découvert dans la formation de Winton aux côtés de restes fossiles du théropode Australovenator. Sur le même site, un spécimen d'un autre titanosaure basal Wintonotitan a été mis au jour[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Diamantinasaurus a été découvert dans la formation de Winton aux côtés de restes fossiles du théropode Australovenator. Sur le même site, un spécimen d'un autre titanosaure basal Wintonotitan a été mis au jour,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sauropode quadrupède herbivore[3] était de taille relativement modeste pour un titanosaure, atteignant peut-être 15 à 16 mètres pour une masse de 15 à 20 tonnes. Comme de nombreux autres titanosaures, il est possible qu'il ait porté des ostéodermes sur son dos[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sauropode quadrupède herbivore était de taille relativement modeste pour un titanosaure, atteignant peut-être 15 à 16 mètres pour une masse de 15 à 20 tonnes. Comme de nombreux autres titanosaures, il est possible qu'il ait porté des ostéodermes sur son dos.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diamantinasaurus est classé comme un titanosaure basal. L'analyse phylogénétique de Poropat et ses collègues en 2016 le place en dehors du groupe des Lithostrotia, et proche de Savannasaurus, un autre genre également découvert dans le Queensland[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diamantinasaurus est classé comme un titanosaure basal. L'analyse phylogénétique de Poropat et ses collègues en 2016 le place en dehors du groupe des Lithostrotia, et proche de Savannasaurus, un autre genre également découvert dans le Queensland.
 </t>
         </is>
       </c>
